--- a/RCKT.xlsx
+++ b/RCKT.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BF1ABA-7EF6-418D-8692-44CC932BCE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1180DB4C-8F2F-4232-ABB6-EAEEACEFE4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="4635" windowWidth="38700" windowHeight="15345" xr2:uid="{8AEDBDDA-EEEF-4686-A046-8548F59C7393}"/>
+    <workbookView xWindow="-26715" yWindow="765" windowWidth="27015" windowHeight="19950" activeTab="1" xr2:uid="{8AEDBDDA-EEEF-4686-A046-8548F59C7393}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="RP-A501" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>Price</t>
   </si>
@@ -56,9 +57,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q322</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -77,9 +75,6 @@
     <t>PK Deficiency</t>
   </si>
   <si>
-    <t>RP-L201</t>
-  </si>
-  <si>
     <t>LAD-I</t>
   </si>
   <si>
@@ -108,14 +103,90 @@
   </si>
   <si>
     <t>BAG3-DCM</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>MOA</t>
+  </si>
+  <si>
+    <t>LAMP2B AAV9</t>
+  </si>
+  <si>
+    <t>Clinical Trials</t>
+  </si>
+  <si>
+    <t>Phase II pivotal n=12</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>CRL</t>
+  </si>
+  <si>
+    <t>RP-L201 (marnetegragene autotemcel)</t>
+  </si>
+  <si>
+    <t>in vivo GT</t>
+  </si>
+  <si>
+    <t>in vitro GT</t>
+  </si>
+  <si>
+    <t>Danon Disease. 15-30k people in US+EU</t>
+  </si>
+  <si>
+    <t>19 years OS</t>
+  </si>
+  <si>
+    <t>Phase I</t>
+  </si>
+  <si>
+    <t>LV mass 311 --&gt;212, 989--&gt;511, 438--&gt;375, 410---&gt;300, 605--&gt;447, 234--&gt;185</t>
+  </si>
+  <si>
+    <t>Spain Registry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -225,10 +296,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -236,7 +308,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -244,12 +315,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{BAC00919-E74D-438E-881D-0AF9E572BF00}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -262,9 +340,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -302,7 +380,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -408,7 +486,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -550,7 +628,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -558,187 +636,311 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C2A8B5-2B14-4C78-81C0-DE56C393192F}">
-  <dimension ref="B2:N10"/>
+  <dimension ref="B2:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>17.149999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
-      <c r="L2" t="s">
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>90.956000000000003</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2">
+        <f>+K2*K3</f>
+        <v>1559.8953999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="2">
+        <f>38.607+240.218</f>
+        <v>278.82499999999999</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="2">
         <v>0</v>
       </c>
-      <c r="M2" s="1">
-        <v>20.34</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
+      <c r="L6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="J7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2">
+        <f>+K4-K5+K6</f>
+        <v>1281.0703999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K12" s="13">
+        <f>SUM(K13:K18)</f>
+        <v>91.406019999999984</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K13">
+        <f>17.687+12.945+9.155+5.808+4.327+3.928+3.479+3.139+2.919+2.864</f>
+        <v>66.250999999999991</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K14">
+        <f>2.633+1.603+1.561+1.466+1.238+1.226+1.183+1.1+1.1+1.1</f>
+        <v>14.209999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K15">
+        <f>0.946+0.75+0.695+0.686+0.677+0.588+0.579+0.579+0.561+0.561+0.549+0.508+0.476</f>
+        <v>8.1549999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K16">
+        <f>0.4057+0.3869+0.352+0.35+0.2929+0.2613+0.25098+0.25037+0.23987</f>
+        <v>2.7900200000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" location="'RP-A501'!A1" display="RP-A501" xr:uid="{A9880F01-96E5-4B71-93A7-B5B823A3749A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1692FD84-185B-4DB9-ABD0-405F96E1A1FF}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-      <c r="L3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2">
-        <v>75.684422999999995</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
-      <c r="L4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="2">
-        <f>+M2*M3</f>
-        <v>1539.4211638199999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6"/>
-      <c r="L5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="2">
-        <f>196.669+109.865</f>
-        <v>306.53399999999999</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
-      <c r="L6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
-      <c r="L7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="2">
-        <f>+M4-M5+M6</f>
-        <v>1232.8871638199998</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9"/>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <f>+D17*2</f>
+        <v>54</v>
+      </c>
+      <c r="F17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{C72A4781-6135-4840-962C-A869E386D571}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>